--- a/reports/TS_Speck_significant_times.xlsx
+++ b/reports/TS_Speck_significant_times.xlsx
@@ -479,11 +479,11 @@
         <v>32.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.125</v>
+        <v>0.111</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-50.5:-12.2</t>
+          <t>39.7:78.05</t>
         </is>
       </c>
     </row>
@@ -501,11 +501,11 @@
         <v>46.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-71.5:-18.6</t>
+          <t>40.848:88.851</t>
         </is>
       </c>
     </row>
@@ -523,11 +523,11 @@
         <v>55.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-92.1:-19.2</t>
+          <t>39.6:98.3</t>
         </is>
       </c>
     </row>
@@ -545,11 +545,11 @@
         <v>56.39999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.051</v>
+        <v>0.061</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-91.0:-16.5</t>
+          <t>40.399:98.25</t>
         </is>
       </c>
     </row>
@@ -567,11 +567,11 @@
         <v>60.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.066</v>
+        <v>0.054</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-99.8:-20.5</t>
+          <t>38.549:102.8</t>
         </is>
       </c>
     </row>
@@ -589,11 +589,11 @@
         <v>59.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-97.7:-19.2</t>
+          <t>39.893:101.85</t>
         </is>
       </c>
     </row>
@@ -611,11 +611,11 @@
         <v>55.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.054</v>
+        <v>0.047</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-88.7:-17.2</t>
+          <t>40.499:97.7</t>
         </is>
       </c>
     </row>
@@ -633,11 +633,11 @@
         <v>52.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-85.0:-15.5</t>
+          <t>40.05:95.95</t>
         </is>
       </c>
     </row>
@@ -655,11 +655,11 @@
         <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>0.054</v>
+        <v>0.059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-68.7:-16.8</t>
+          <t>41.65:87.852</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         <v>35.39999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09</v>
+        <v>0.081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-52.4:-14.1</t>
+          <t>41.85:79.15</t>
         </is>
       </c>
     </row>
@@ -699,11 +699,11 @@
         <v>31.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.112</v>
+        <v>0.1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-45.8:-16.4</t>
+          <t>42.2:76.0</t>
         </is>
       </c>
     </row>
@@ -721,11 +721,11 @@
         <v>19.39999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.156</v>
+        <v>0.137</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-25.2:-12.5</t>
+          <t>41.45:65.7</t>
         </is>
       </c>
     </row>
@@ -743,11 +743,11 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.194</v>
+        <v>0.222</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-18.9:-10.6</t>
+          <t>41.4:61.2</t>
         </is>
       </c>
     </row>
@@ -765,11 +765,11 @@
         <v>11.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0.299</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-17.5:-4.7</t>
+          <t>40.4:59.351</t>
         </is>
       </c>
     </row>
@@ -787,11 +787,11 @@
         <v>8.899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.36</v>
+        <v>0.335</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-13.6:-3.1</t>
+          <t>40.55:57.4</t>
         </is>
       </c>
     </row>
@@ -809,11 +809,11 @@
         <v>4.399999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.586</v>
+        <v>0.605</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-12.1:3.3</t>
+          <t>39.55:54.0</t>
         </is>
       </c>
     </row>
@@ -831,11 +831,11 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="E18" t="n">
-        <v>0.977</v>
+        <v>0.967</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-8.3:9.1</t>
+          <t>37.05:51.25</t>
         </is>
       </c>
     </row>
@@ -853,11 +853,11 @@
         <v>-1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.853</v>
+        <v>0.865</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-7.2:10.2</t>
+          <t>35.9:51.051</t>
         </is>
       </c>
     </row>
@@ -875,11 +875,11 @@
         <v>-4.700000000000003</v>
       </c>
       <c r="E20" t="n">
-        <v>0.541</v>
+        <v>0.577</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-6.4:15.8</t>
+          <t>34.55:49.1</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
         <v>-6.400000000000006</v>
       </c>
       <c r="E21" t="n">
-        <v>0.468</v>
+        <v>0.437</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-5.7:18.5</t>
+          <t>33.4:48.1</t>
         </is>
       </c>
     </row>
@@ -919,11 +919,11 @@
         <v>-7.600000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.405</v>
+        <v>0.386</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-5.1:20.3</t>
+          <t>32.649:47.75</t>
         </is>
       </c>
     </row>
@@ -941,11 +941,11 @@
         <v>-7.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.385</v>
+        <v>0.377</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-4.9:19.9</t>
+          <t>32.65:47.95</t>
         </is>
       </c>
     </row>
@@ -963,11 +963,11 @@
         <v>-10.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.225</v>
+        <v>0.235</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-1.4:22.4</t>
+          <t>30.8:46.451</t>
         </is>
       </c>
     </row>
@@ -985,11 +985,11 @@
         <v>-12.3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.155</v>
+        <v>0.144</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.6:24.0</t>
+          <t>29.95:45.35</t>
         </is>
       </c>
     </row>
@@ -1007,11 +1007,11 @@
         <v>-12.8</v>
       </c>
       <c r="E26" t="n">
-        <v>0.151</v>
+        <v>0.132</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.6:25.0</t>
+          <t>29.5:45.15</t>
         </is>
       </c>
     </row>
@@ -1029,11 +1029,11 @@
         <v>-12.7</v>
       </c>
       <c r="E27" t="n">
-        <v>0.137</v>
+        <v>0.146</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.8:24.6</t>
+          <t>29.099:45.8</t>
         </is>
       </c>
     </row>
@@ -1051,11 +1051,11 @@
         <v>-13.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.131</v>
+        <v>0.137</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.9:28.5</t>
+          <t>28.2:45.75</t>
         </is>
       </c>
     </row>
@@ -1073,11 +1073,11 @@
         <v>-14.9</v>
       </c>
       <c r="E29" t="n">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-1.3:31.1</t>
+          <t>27.4:45.25</t>
         </is>
       </c>
     </row>
@@ -1095,11 +1095,11 @@
         <v>-13.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.141</v>
+        <v>0.145</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-2.5:29.7</t>
+          <t>28.5:45.7</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1117,11 @@
         <v>-14.8</v>
       </c>
       <c r="E31" t="n">
-        <v>0.121</v>
+        <v>0.117</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-0.1:29.7</t>
+          <t>27.9:45.15</t>
         </is>
       </c>
     </row>
@@ -1139,11 +1139,11 @@
         <v>-16.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.112</v>
+        <v>0.108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.8:33.4</t>
+          <t>26.55:44.9</t>
         </is>
       </c>
     </row>
@@ -1161,11 +1161,11 @@
         <v>-12.8</v>
       </c>
       <c r="E33" t="n">
-        <v>0.217</v>
+        <v>0.21</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-6.3:31.9</t>
+          <t>28.85:46.8</t>
         </is>
       </c>
     </row>
@@ -1183,11 +1183,11 @@
         <v>-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.199</v>
+        <v>0.197</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-5.6:33.6</t>
+          <t>27.7:46.75</t>
         </is>
       </c>
     </row>
@@ -1205,11 +1205,11 @@
         <v>-16.2</v>
       </c>
       <c r="E35" t="n">
-        <v>0.127</v>
+        <v>0.138</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-4.4:36.8</t>
+          <t>26.05:45.801</t>
         </is>
       </c>
     </row>
@@ -1227,11 +1227,11 @@
         <v>-13.8</v>
       </c>
       <c r="E36" t="n">
-        <v>0.206</v>
+        <v>0.197</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-9.3:36.9</t>
+          <t>27.449:47.6</t>
         </is>
       </c>
     </row>
@@ -1249,11 +1249,11 @@
         <v>-14.6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.16</v>
+        <v>0.166</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-7.9:37.1</t>
+          <t>27.099:47.0</t>
         </is>
       </c>
     </row>
@@ -1271,11 +1271,11 @@
         <v>-16.3</v>
       </c>
       <c r="E38" t="n">
-        <v>0.105</v>
+        <v>0.127</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-5.0:37.6</t>
+          <t>25.8:45.801</t>
         </is>
       </c>
     </row>
@@ -1293,11 +1293,11 @@
         <v>-15.2</v>
       </c>
       <c r="E39" t="n">
-        <v>0.179</v>
+        <v>0.198</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-8.4:38.8</t>
+          <t>25.9:47.35</t>
         </is>
       </c>
     </row>
@@ -1315,11 +1315,11 @@
         <v>-12.6</v>
       </c>
       <c r="E40" t="n">
-        <v>0.257</v>
+        <v>0.259</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-11.3:36.5</t>
+          <t>28.049:48.05</t>
         </is>
       </c>
     </row>
@@ -1337,11 +1337,11 @@
         <v>-13.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.259</v>
+        <v>0.246</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-12.5:40.1</t>
+          <t>26.55:48.501</t>
         </is>
       </c>
     </row>
@@ -1359,11 +1359,11 @@
         <v>-13.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-12.7:38.5</t>
+          <t>27.05:48.75</t>
         </is>
       </c>
     </row>
@@ -1381,11 +1381,11 @@
         <v>-12.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.311</v>
+        <v>0.253</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-12.0:37.0</t>
+          <t>27.8:48.35</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         <v>2.800000000000011</v>
       </c>
       <c r="E2" t="n">
-        <v>0.847</v>
+        <v>0.904</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-8.2:4.005</t>
+          <t>221.4:274.7</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1471,11 @@
         <v>-5.199999999999989</v>
       </c>
       <c r="E3" t="n">
-        <v>0.781</v>
+        <v>0.857</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.6:12.6</t>
+          <t>219.3:270.1</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1493,11 @@
         <v>-14.79999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.551</v>
+        <v>0.642</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.6:24.6</t>
+          <t>214.7:264.2</t>
         </is>
       </c>
     </row>
@@ -1515,11 +1515,11 @@
         <v>-17.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.0:27.8</t>
+          <t>213.1:263.4</t>
         </is>
       </c>
     </row>
@@ -1537,11 +1537,11 @@
         <v>-31.39999999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.289</v>
+        <v>0.281</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14.4:41.8</t>
+          <t>207.2:255.6</t>
         </is>
       </c>
     </row>
@@ -1559,11 +1559,11 @@
         <v>-37.19999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.223</v>
+        <v>0.21</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17.8:54.0</t>
+          <t>202.698:255.1</t>
         </is>
       </c>
     </row>
@@ -1581,11 +1581,11 @@
         <v>-43.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.129</v>
+        <v>0.159</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>23.6:63.6</t>
+          <t>198.6:253.8</t>
         </is>
       </c>
     </row>
@@ -1603,11 +1603,11 @@
         <v>-47.19999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>23.0:66.4</t>
+          <t>197.6:249.6</t>
         </is>
       </c>
     </row>
@@ -1625,11 +1625,11 @@
         <v>-55.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.066</v>
+        <v>0.079</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>27.8:83.4</t>
+          <t>189.6:250.3</t>
         </is>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         <v>-62.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02</v>
+        <v>0.042</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>36.0:89.2</t>
+          <t>185.0:247.6</t>
         </is>
       </c>
     </row>
@@ -1669,11 +1669,11 @@
         <v>-68</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40.0:91.4</t>
+          <t>182.898:243.5</t>
         </is>
       </c>
     </row>
@@ -1691,11 +1691,11 @@
         <v>-68.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.019</v>
+        <v>0.024</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>42.8:94.0</t>
+          <t>182.6:243.9</t>
         </is>
       </c>
     </row>
@@ -1713,11 +1713,11 @@
         <v>-76.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>54.4:99.2</t>
+          <t>176.495:242.0</t>
         </is>
       </c>
     </row>
@@ -1735,11 +1735,11 @@
         <v>-84</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60.6:103.6</t>
+          <t>170.698:240.0</t>
         </is>
       </c>
     </row>
@@ -1757,11 +1757,11 @@
         <v>-85.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>62.4:105.0</t>
+          <t>169.898:238.8</t>
         </is>
       </c>
     </row>
@@ -1779,11 +1779,11 @@
         <v>-84</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>58.6:107.0</t>
+          <t>171.3:239.2</t>
         </is>
       </c>
     </row>
@@ -1801,11 +1801,11 @@
         <v>-80.19999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>52.2:112.6</t>
+          <t>173.1:242.002</t>
         </is>
       </c>
     </row>
@@ -1823,11 +1823,11 @@
         <v>-71.79999999999998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50.0:92.0</t>
+          <t>179.6:242.203</t>
         </is>
       </c>
     </row>
@@ -1845,11 +1845,11 @@
         <v>-64.39999999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>39.4:92.2</t>
+          <t>184.898:245.0</t>
         </is>
       </c>
     </row>
@@ -1867,11 +1867,11 @@
         <v>-57.79999999999998</v>
       </c>
       <c r="E21" t="n">
-        <v>0.041</v>
+        <v>0.051</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>33.8:82.4</t>
+          <t>189.7:247.2</t>
         </is>
       </c>
     </row>
@@ -1889,11 +1889,11 @@
         <v>-49.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.061</v>
+        <v>0.079</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>23.2:75.2</t>
+          <t>196.2:248.8</t>
         </is>
       </c>
     </row>
@@ -1911,11 +1911,11 @@
         <v>-33.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.284</v>
+        <v>0.262</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8.2:60.4</t>
+          <t>205.1:256.4</t>
         </is>
       </c>
     </row>
@@ -1933,11 +1933,11 @@
         <v>-26</v>
       </c>
       <c r="E24" t="n">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-4.6:57.2</t>
+          <t>208.598:261.0</t>
         </is>
       </c>
     </row>
@@ -1955,11 +1955,11 @@
         <v>-21</v>
       </c>
       <c r="E25" t="n">
-        <v>0.477</v>
+        <v>0.453</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-4.0:48.6</t>
+          <t>212.7:260.7</t>
         </is>
       </c>
     </row>
@@ -1977,11 +1977,11 @@
         <v>-5.599999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.848</v>
+        <v>0.864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-16.0:35.0</t>
+          <t>218.9:270.1</t>
         </is>
       </c>
     </row>
@@ -1999,11 +1999,11 @@
         <v>-11.39999999999998</v>
       </c>
       <c r="E27" t="n">
-        <v>0.707</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-18.8:46.2</t>
+          <t>219.1:265.5</t>
         </is>
       </c>
     </row>
@@ -2021,11 +2021,11 @@
         <v>7.600000000000023</v>
       </c>
       <c r="E28" t="n">
-        <v>0.783</v>
+        <v>0.805</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-33.2:22.0</t>
+          <t>228.2:274.6</t>
         </is>
       </c>
     </row>
@@ -2043,11 +2043,11 @@
         <v>21.40000000000003</v>
       </c>
       <c r="E29" t="n">
-        <v>0.416</v>
+        <v>0.45</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-52.6:17.4</t>
+          <t>234.298:283.7</t>
         </is>
       </c>
     </row>
@@ -2065,11 +2065,11 @@
         <v>31.19999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.257</v>
+        <v>0.269</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-63.8:2.8</t>
+          <t>239.4:288.6</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
         <v>38.80000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.176</v>
+        <v>0.172</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-74.2:-4.2</t>
+          <t>242.2:295.0</t>
         </is>
       </c>
     </row>
@@ -2109,11 +2109,11 @@
         <v>51</v>
       </c>
       <c r="E32" t="n">
-        <v>0.133</v>
+        <v>0.083</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-76.6:-24.6</t>
+          <t>244.7:303.7</t>
         </is>
       </c>
     </row>
@@ -2131,11 +2131,11 @@
         <v>49.60000000000002</v>
       </c>
       <c r="E33" t="n">
-        <v>0.128</v>
+        <v>0.132</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-78.0:-17.2</t>
+          <t>244.0:303.7</t>
         </is>
       </c>
     </row>
@@ -2153,11 +2153,11 @@
         <v>72.60000000000002</v>
       </c>
       <c r="E34" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-104.8:-39.2</t>
+          <t>249.598:320.5</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-114.6:-55.6</t>
+          <t>254.298:331.802</t>
         </is>
       </c>
     </row>
@@ -2197,11 +2197,11 @@
         <v>87.60000000000002</v>
       </c>
       <c r="E36" t="n">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-119.6:-50.8</t>
+          <t>256.798:328.8</t>
         </is>
       </c>
     </row>
@@ -2219,11 +2219,11 @@
         <v>103.4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.025</v>
+        <v>0.014</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-135.0:-66.2</t>
+          <t>261.0:341.5</t>
         </is>
       </c>
     </row>
@@ -2241,11 +2241,11 @@
         <v>122</v>
       </c>
       <c r="E38" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-150.2:-83.2</t>
+          <t>263.598:355.7</t>
         </is>
       </c>
     </row>
@@ -2263,11 +2263,11 @@
         <v>127</v>
       </c>
       <c r="E39" t="n">
-        <v>0.014</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-168.0:-81.4</t>
+          <t>262.2:362.3</t>
         </is>
       </c>
     </row>
@@ -2285,11 +2285,11 @@
         <v>143.2</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-176.2:-110.8</t>
+          <t>266.998:372.403</t>
         </is>
       </c>
     </row>
@@ -2307,11 +2307,11 @@
         <v>146.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-178.4:-107.8</t>
+          <t>267.598:374.802</t>
         </is>
       </c>
     </row>
@@ -2329,11 +2329,11 @@
         <v>157.6</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-190.2:-123.8</t>
+          <t>269.698:384.1</t>
         </is>
       </c>
     </row>
@@ -2351,11 +2351,11 @@
         <v>175.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-217.0:-133.2</t>
+          <t>272.8:399.1</t>
         </is>
       </c>
     </row>
@@ -2419,11 +2419,11 @@
         <v>-8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.792</v>
+        <v>0.829</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.6:19.4</t>
+          <t>191.898:259.7</t>
         </is>
       </c>
     </row>
@@ -2441,11 +2441,11 @@
         <v>-22.19999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.584</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14.2:36.4</t>
+          <t>184.7:252.1</t>
         </is>
       </c>
     </row>
@@ -2463,11 +2463,11 @@
         <v>-29.79999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.458</v>
+        <v>0.435</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17.0:47.6</t>
+          <t>180.298:246.8</t>
         </is>
       </c>
     </row>
@@ -2485,11 +2485,11 @@
         <v>-27.19999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.468</v>
+        <v>0.456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15.4:41.8</t>
+          <t>180.8:249.5</t>
         </is>
       </c>
     </row>
@@ -2507,11 +2507,11 @@
         <v>-26.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.459</v>
+        <v>0.508</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12.2:44.6</t>
+          <t>182.1:248.8</t>
         </is>
       </c>
     </row>
@@ -2529,11 +2529,11 @@
         <v>-19.79999999999998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.621</v>
+        <v>0.589</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.6:39.0</t>
+          <t>186.0:252.6</t>
         </is>
       </c>
     </row>
@@ -2551,11 +2551,11 @@
         <v>-19</v>
       </c>
       <c r="E8" t="n">
-        <v>0.653</v>
+        <v>0.624</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.2:38.6</t>
+          <t>187.4:252.0</t>
         </is>
       </c>
     </row>
@@ -2573,11 +2573,11 @@
         <v>-3.199999999999989</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-16.0:24.0</t>
+          <t>195.4:261.0</t>
         </is>
       </c>
     </row>
@@ -2595,11 +2595,11 @@
         <v>8.200000000000017</v>
       </c>
       <c r="E10" t="n">
-        <v>0.819</v>
+        <v>0.848</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-30.4:14.0</t>
+          <t>201.3:265.8</t>
         </is>
       </c>
     </row>
@@ -2617,11 +2617,11 @@
         <v>14.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.712</v>
+        <v>0.724</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-36.4:9.0</t>
+          <t>202.2:272.403</t>
         </is>
       </c>
     </row>
@@ -2639,11 +2639,11 @@
         <v>29.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.457</v>
+        <v>0.482</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-58.0:4.4</t>
+          <t>208.898:280.302</t>
         </is>
       </c>
     </row>
@@ -2661,11 +2661,11 @@
         <v>37.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.378</v>
+        <v>0.4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-62.0:-7.0</t>
+          <t>210.0:286.9</t>
         </is>
       </c>
     </row>
@@ -2683,11 +2683,11 @@
         <v>47.79999999999998</v>
       </c>
       <c r="E14" t="n">
-        <v>0.291</v>
+        <v>0.271</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-74.6:-16.4</t>
+          <t>214.1:292.903</t>
         </is>
       </c>
     </row>
@@ -2705,11 +2705,11 @@
         <v>61.20000000000002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-88.8:-26.6</t>
+          <t>216.3:302.8</t>
         </is>
       </c>
     </row>
@@ -2727,11 +2727,11 @@
         <v>68.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.145</v>
+        <v>0.146</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-102.8:-29.6</t>
+          <t>221.1:307.1</t>
         </is>
       </c>
     </row>
@@ -2749,11 +2749,11 @@
         <v>89.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.074</v>
+        <v>0.081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-117.6:-61.2</t>
+          <t>228.2:321.005</t>
         </is>
       </c>
     </row>
@@ -2771,11 +2771,11 @@
         <v>100.8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-129.4:-72.2</t>
+          <t>231.098:328.4</t>
         </is>
       </c>
     </row>
@@ -2793,11 +2793,11 @@
         <v>122.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-156.2:-89.0</t>
+          <t>233.9:347.305</t>
         </is>
       </c>
     </row>
@@ -2815,11 +2815,11 @@
         <v>138.8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.039</v>
+        <v>0.031</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-176.2:-99.2</t>
+          <t>237.895:357.8</t>
         </is>
       </c>
     </row>
@@ -2837,11 +2837,11 @@
         <v>134.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-178.4:-88.4</t>
+          <t>236.1:354.602</t>
         </is>
       </c>
     </row>
@@ -2859,11 +2859,11 @@
         <v>149.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-191.0:-108.2</t>
+          <t>241.998:365.4</t>
         </is>
       </c>
     </row>
@@ -2881,11 +2881,11 @@
         <v>167</v>
       </c>
       <c r="E23" t="n">
-        <v>0.021</v>
+        <v>0.01</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-210.6:-123.4</t>
+          <t>246.2:378.003</t>
         </is>
       </c>
     </row>
@@ -2903,11 +2903,11 @@
         <v>178.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-221.2:-135.2</t>
+          <t>248.9:387.002</t>
         </is>
       </c>
     </row>
@@ -2925,11 +2925,11 @@
         <v>191.2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-234.6:-142.8</t>
+          <t>251.2:396.505</t>
         </is>
       </c>
     </row>
@@ -2947,11 +2947,11 @@
         <v>192.2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-230.6:-156.8</t>
+          <t>253.098:395.8</t>
         </is>
       </c>
     </row>
@@ -2969,11 +2969,11 @@
         <v>202.6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.018</v>
+        <v>0.002</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-247.2:-157.0</t>
+          <t>256.2:404.2</t>
         </is>
       </c>
     </row>
@@ -2991,11 +2991,11 @@
         <v>218</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-258.2:-173.6</t>
+          <t>260.7:415.102</t>
         </is>
       </c>
     </row>
@@ -3013,11 +3013,11 @@
         <v>226</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-281.0:-173.6</t>
+          <t>261.098:421.9</t>
         </is>
       </c>
     </row>
@@ -3035,11 +3035,11 @@
         <v>234</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-279.0:-189.6</t>
+          <t>264.298:426.403</t>
         </is>
       </c>
     </row>
@@ -3057,11 +3057,11 @@
         <v>244</v>
       </c>
       <c r="E31" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-299.8:-193.4</t>
+          <t>262.8:435.305</t>
         </is>
       </c>
     </row>
@@ -3079,11 +3079,11 @@
         <v>251</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-313.0:-189.4</t>
+          <t>263.5:440.803</t>
         </is>
       </c>
     </row>
@@ -3101,11 +3101,11 @@
         <v>259.2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-318.8:-199.2</t>
+          <t>268.1:447.102</t>
         </is>
       </c>
     </row>
@@ -3123,11 +3123,11 @@
         <v>278.8</v>
       </c>
       <c r="E34" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-342.6:-219.57</t>
+          <t>271.498:463.502</t>
         </is>
       </c>
     </row>
@@ -3145,11 +3145,11 @@
         <v>296.8</v>
       </c>
       <c r="E35" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-372.4:-225.4</t>
+          <t>273.9:478.905</t>
         </is>
       </c>
     </row>
@@ -3167,11 +3167,11 @@
         <v>305.4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-377.4:-242.0</t>
+          <t>279.2:486.903</t>
         </is>
       </c>
     </row>
@@ -3189,11 +3189,11 @@
         <v>327</v>
       </c>
       <c r="E37" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-409.0:-254.4</t>
+          <t>279.598:503.102</t>
         </is>
       </c>
     </row>
@@ -3211,11 +3211,11 @@
         <v>329.6</v>
       </c>
       <c r="E38" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-410.6:-260.6</t>
+          <t>278.498:503.307</t>
         </is>
       </c>
     </row>
@@ -3233,11 +3233,11 @@
         <v>341.6</v>
       </c>
       <c r="E39" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-425.6:-269.6</t>
+          <t>278.095:512.505</t>
         </is>
       </c>
     </row>
@@ -3255,11 +3255,11 @@
         <v>356</v>
       </c>
       <c r="E40" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-445.4:-279.6</t>
+          <t>288.7:523.703</t>
         </is>
       </c>
     </row>
@@ -3277,11 +3277,11 @@
         <v>374.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-465.6:-293.15</t>
+          <t>291.7:538.608</t>
         </is>
       </c>
     </row>
@@ -3299,11 +3299,11 @@
         <v>396.4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-495.02:-297.4</t>
+          <t>290.1:557.8</t>
         </is>
       </c>
     </row>
@@ -3321,11 +3321,11 @@
         <v>404.8</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-505.2:-313.0</t>
+          <t>292.198:558.902</t>
         </is>
       </c>
     </row>
@@ -3389,11 +3389,11 @@
         <v>123.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-162.8:-93.4</t>
+          <t>235.898:323.8</t>
         </is>
       </c>
     </row>
@@ -3411,11 +3411,11 @@
         <v>291.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-330.2:-257.6</t>
+          <t>271.4:455.3</t>
         </is>
       </c>
     </row>
@@ -3433,11 +3433,11 @@
         <v>421.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-451.8:-392.0</t>
+          <t>296.195:563.802</t>
         </is>
       </c>
     </row>
@@ -3455,11 +3455,11 @@
         <v>519.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-540.0:-498.4</t>
+          <t>316.5:638.8</t>
         </is>
       </c>
     </row>
@@ -3477,11 +3477,11 @@
         <v>599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-617.8:-580.0</t>
+          <t>331.9:703.502</t>
         </is>
       </c>
     </row>
@@ -3499,11 +3499,11 @@
         <v>643</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-662.4:-623.6</t>
+          <t>341.298:737.402</t>
         </is>
       </c>
     </row>
@@ -3521,11 +3521,11 @@
         <v>679</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-708.2:-656.8</t>
+          <t>349.4:766.0</t>
         </is>
       </c>
     </row>
@@ -3543,11 +3543,11 @@
         <v>698</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-734.8:-670.8</t>
+          <t>351.098:782.102</t>
         </is>
       </c>
     </row>
@@ -3565,11 +3565,11 @@
         <v>702.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-743.4:-671.2</t>
+          <t>350.498:789.203</t>
         </is>
       </c>
     </row>
@@ -3587,11 +3587,11 @@
         <v>690.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-731.2:-651.8</t>
+          <t>345.4:777.6</t>
         </is>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
         <v>662.2</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-708.6:-621.2</t>
+          <t>337.3:754.102</t>
         </is>
       </c>
     </row>
@@ -3631,11 +3631,11 @@
         <v>631.4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-672.0:-598.4</t>
+          <t>335.698:731.903</t>
         </is>
       </c>
     </row>
@@ -3653,11 +3653,11 @@
         <v>578.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-614.6:-546.2</t>
+          <t>326.0:687.502</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-547.0:-495.0</t>
+          <t>315.795:642.102</t>
         </is>
       </c>
     </row>
@@ -3697,11 +3697,11 @@
         <v>445.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-465.4:-427.0</t>
+          <t>300.998:583.505</t>
         </is>
       </c>
     </row>
@@ -3719,11 +3719,11 @@
         <v>375.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-393.8:-356.6</t>
+          <t>288.0:524.2</t>
         </is>
       </c>
     </row>
@@ -3741,11 +3741,11 @@
         <v>310.4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-331.4:-289.4</t>
+          <t>274.798:474.2</t>
         </is>
       </c>
     </row>
@@ -3763,11 +3763,11 @@
         <v>258</v>
       </c>
       <c r="E19" t="n">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-297.4:-212.6</t>
+          <t>261.798:430.61</t>
         </is>
       </c>
     </row>
@@ -3785,11 +3785,11 @@
         <v>226.2</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-258.0:-186.0</t>
+          <t>258.0:405.0</t>
         </is>
       </c>
     </row>
@@ -3807,11 +3807,11 @@
         <v>219.6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-258.6:-170.2</t>
+          <t>256.9:400.7</t>
         </is>
       </c>
     </row>
@@ -3829,11 +3829,11 @@
         <v>226.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-276.2:-168.2</t>
+          <t>255.7:406.2</t>
         </is>
       </c>
     </row>
@@ -3851,11 +3851,11 @@
         <v>242.2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-292.8:-184.2</t>
+          <t>259.298:419.7</t>
         </is>
       </c>
     </row>
@@ -3873,11 +3873,11 @@
         <v>270.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-321.8:-207.6</t>
+          <t>266.398:439.6</t>
         </is>
       </c>
     </row>
@@ -3895,11 +3895,11 @@
         <v>282.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-329.6:-224.4</t>
+          <t>268.895:450.403</t>
         </is>
       </c>
     </row>
@@ -3917,11 +3917,11 @@
         <v>302.6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-346.4:-241.175</t>
+          <t>275.3:465.5</t>
         </is>
       </c>
     </row>
@@ -3939,11 +3939,11 @@
         <v>312</v>
       </c>
       <c r="E27" t="n">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-360.6:-247.8</t>
+          <t>277.09:473.505</t>
         </is>
       </c>
     </row>
@@ -3961,11 +3961,11 @@
         <v>313.4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-371.0:-242.8</t>
+          <t>274.495:477.302</t>
         </is>
       </c>
     </row>
@@ -3983,11 +3983,11 @@
         <v>318.6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-366.6:-254.8</t>
+          <t>277.1:480.403</t>
         </is>
       </c>
     </row>
@@ -4005,11 +4005,11 @@
         <v>303</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-357.0:-242.2</t>
+          <t>272.793:466.602</t>
         </is>
       </c>
     </row>
@@ -4027,11 +4027,11 @@
         <v>304</v>
       </c>
       <c r="E31" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-360.6:-234.0</t>
+          <t>273.193:468.0</t>
         </is>
       </c>
     </row>
@@ -4049,11 +4049,11 @@
         <v>301</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-364.2:-231.0</t>
+          <t>272.3:465.402</t>
         </is>
       </c>
     </row>
@@ -4071,11 +4071,11 @@
         <v>291.4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-359.4:-217.0</t>
+          <t>268.5:459.302</t>
         </is>
       </c>
     </row>
@@ -4093,11 +4093,11 @@
         <v>292.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-359.0:-213.0</t>
+          <t>268.698:458.803</t>
         </is>
       </c>
     </row>
@@ -4115,11 +4115,11 @@
         <v>317.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-377.4:-252.0</t>
+          <t>273.4:478.403</t>
         </is>
       </c>
     </row>
@@ -4137,11 +4137,11 @@
         <v>321.4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-379.0:-268.0</t>
+          <t>277.295:481.002</t>
         </is>
       </c>
     </row>
@@ -4159,11 +4159,11 @@
         <v>322</v>
       </c>
       <c r="E37" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-385.4:-265.4</t>
+          <t>275.698:480.602</t>
         </is>
       </c>
     </row>
@@ -4181,11 +4181,11 @@
         <v>308.8</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-366.0:-261.2</t>
+          <t>272.0:472.8</t>
         </is>
       </c>
     </row>
@@ -4203,11 +4203,11 @@
         <v>281</v>
       </c>
       <c r="E39" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-335.4:-228.6</t>
+          <t>266.998:450.805</t>
         </is>
       </c>
     </row>
@@ -4225,11 +4225,11 @@
         <v>250.6</v>
       </c>
       <c r="E40" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-300.6:-212.6</t>
+          <t>261.695:423.5</t>
         </is>
       </c>
     </row>
@@ -4247,11 +4247,11 @@
         <v>211.4</v>
       </c>
       <c r="E41" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-262.0:-176.2</t>
+          <t>254.698:392.802</t>
         </is>
       </c>
     </row>
@@ -4269,11 +4269,11 @@
         <v>169.6</v>
       </c>
       <c r="E42" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-208.4:-137.6</t>
+          <t>246.295:360.403</t>
         </is>
       </c>
     </row>
@@ -4291,11 +4291,11 @@
         <v>131</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-161.6:-107.6</t>
+          <t>240.098:329.1</t>
         </is>
       </c>
     </row>
@@ -4359,11 +4359,11 @@
         <v>58.21428571428569</v>
       </c>
       <c r="E2" t="n">
-        <v>0.444</v>
+        <v>0.475</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-73.429:-43.286</t>
+          <t>154.284:298.861</t>
         </is>
       </c>
     </row>
@@ -4381,11 +4381,11 @@
         <v>229.8571428571429</v>
       </c>
       <c r="E3" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-288.714:-170.571</t>
+          <t>202.676:411.929</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-509.714:-314.714</t>
+          <t>255.212:536.396</t>
         </is>
       </c>
     </row>
@@ -4425,11 +4425,11 @@
         <v>580.8571428571429</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-710.429:-439.429</t>
+          <t>291.926:666.358</t>
         </is>
       </c>
     </row>
@@ -4447,11 +4447,11 @@
         <v>736.9285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-902.929:-555.286</t>
+          <t>322.104:782.146</t>
         </is>
       </c>
     </row>
@@ -4469,11 +4469,11 @@
         <v>860.2142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1045.286:-645.429</t>
+          <t>348.285:876.657</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1162.929:-721.286</t>
+          <t>379.053:943.609</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1260.923:-766.286</t>
+          <t>385.799:1004.108</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1331.214:-816.786</t>
+          <t>395.676:1058.15</t>
         </is>
       </c>
     </row>
@@ -4557,11 +4557,11 @@
         <v>1127.428571428571</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1370.143:-841.411</t>
+          <t>417.922:1083.001</t>
         </is>
       </c>
     </row>
@@ -4579,11 +4579,11 @@
         <v>1138.214285714286</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1388.859:-836.421</t>
+          <t>411.028:1091.001</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1410.143:-846.857</t>
+          <t>403.856:1103.153</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-1399.429:-839.286</t>
+          <t>412.281:1096.727</t>
         </is>
       </c>
     </row>
@@ -4645,11 +4645,11 @@
         <v>1126.285714285714</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1384.571:-825.571</t>
+          <t>411.815:1085.222</t>
         </is>
       </c>
     </row>
@@ -4667,11 +4667,11 @@
         <v>1096.928571428571</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1334.437:-805.329</t>
+          <t>403.171:1059.411</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-1307.295:-772.402</t>
+          <t>391.917:1030.716</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-1270.429:-741.214</t>
+          <t>386.238:1016.467</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-1226.571:-712.286</t>
+          <t>360.856:985.147</t>
         </is>
       </c>
     </row>
@@ -4755,11 +4755,11 @@
         <v>947.2142857142857</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1169.786:-667.5</t>
+          <t>355.283:944.396</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         <v>900.0714285714286</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-1110.5:-630.643</t>
+          <t>340.141:909.503</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-1063.143:-600.5</t>
+          <t>341.106:884.362</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-1007.714:-567.143</t>
+          <t>338.035:852.037</t>
         </is>
       </c>
     </row>
@@ -4843,11 +4843,11 @@
         <v>756.1428571428571</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-937.432:-523.143</t>
+          <t>313.997:805.501</t>
         </is>
       </c>
     </row>
@@ -4865,11 +4865,11 @@
         <v>715.2142857142858</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-888.643:-496.0</t>
+          <t>303.922:769.447</t>
         </is>
       </c>
     </row>
@@ -4887,11 +4887,11 @@
         <v>677.6428571428571</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-842.643:-464.143</t>
+          <t>301.817:749.289</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-795.643:-434.677</t>
+          <t>289.532:713.002</t>
         </is>
       </c>
     </row>
@@ -4931,11 +4931,11 @@
         <v>600.9285714285714</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-753.357:-410.0</t>
+          <t>279.889:683.431</t>
         </is>
       </c>
     </row>
@@ -4953,11 +4953,11 @@
         <v>558.3571428571429</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-700.286:-384.357</t>
+          <t>273.241:654.609</t>
         </is>
       </c>
     </row>
@@ -4975,11 +4975,11 @@
         <v>524.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-657.429:-361.5</t>
+          <t>266.316:625.182</t>
         </is>
       </c>
     </row>
@@ -4997,11 +4997,11 @@
         <v>503.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-636.0:-342.707</t>
+          <t>257.392:617.893</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-592.357:-317.643</t>
+          <t>253.49:589.679</t>
         </is>
       </c>
     </row>
@@ -5041,11 +5041,11 @@
         <v>438.2142857142858</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-552.214:-302.429</t>
+          <t>245.356:565.397</t>
         </is>
       </c>
     </row>
@@ -5063,11 +5063,11 @@
         <v>415.8571428571429</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-527.071:-283.641</t>
+          <t>243.962:547.253</t>
         </is>
       </c>
     </row>
@@ -5085,11 +5085,11 @@
         <v>392.5714285714286</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-498.857:-277.0</t>
+          <t>234.534:530.857</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-484.5:-260.929</t>
+          <t>232.989:523.001</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-454.857:-251.071</t>
+          <t>230.962:501.822</t>
         </is>
       </c>
     </row>
@@ -5151,11 +5151,11 @@
         <v>344.7857142857143</v>
       </c>
       <c r="E38" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-444.286:-226.143</t>
+          <t>226.675:495.644</t>
         </is>
       </c>
     </row>
@@ -5173,11 +5173,11 @@
         <v>330.4285714285714</v>
       </c>
       <c r="E39" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-429.643:-218.286</t>
+          <t>220.348:489.649</t>
         </is>
       </c>
     </row>
@@ -5195,11 +5195,11 @@
         <v>327.0714285714286</v>
       </c>
       <c r="E40" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-426.071:-218.857</t>
+          <t>219.356:486.396</t>
         </is>
       </c>
     </row>
@@ -5217,11 +5217,11 @@
         <v>329.1428571428571</v>
       </c>
       <c r="E41" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-426.864:-222.143</t>
+          <t>220.319:487.072</t>
         </is>
       </c>
     </row>
@@ -5239,11 +5239,11 @@
         <v>317.9285714285714</v>
       </c>
       <c r="E42" t="n">
-        <v>0.023</v>
+        <v>0.013</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-419.861:-199.143</t>
+          <t>210.57:483.609</t>
         </is>
       </c>
     </row>
@@ -5261,11 +5261,11 @@
         <v>308.6428571428571</v>
       </c>
       <c r="E43" t="n">
-        <v>0.022</v>
+        <v>0.012</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-406.714:-188.998</t>
+          <t>208.283:473.431</t>
         </is>
       </c>
     </row>
@@ -5329,11 +5329,11 @@
         <v>392.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-605.8:-179.6</t>
+          <t>38.85:369.2</t>
         </is>
       </c>
     </row>
@@ -5351,11 +5351,11 @@
         <v>1119.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1187.1:-1046.5</t>
+          <t>237.2:926.402</t>
         </is>
       </c>
     </row>
@@ -5373,11 +5373,11 @@
         <v>1428.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1677.5:-1142.6</t>
+          <t>278.599:1208.205</t>
         </is>
       </c>
     </row>
@@ -5395,11 +5395,11 @@
         <v>1470.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1802.9:-1107.4</t>
+          <t>246.775:1252.309</t>
         </is>
       </c>
     </row>
@@ -5417,11 +5417,11 @@
         <v>1426.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1789.7:-1013.9</t>
+          <t>242.5:1223.451</t>
         </is>
       </c>
     </row>
@@ -5439,11 +5439,11 @@
         <v>1329.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-1697.7:-929.2</t>
+          <t>204.564:1148.45</t>
         </is>
       </c>
     </row>
@@ -5461,11 +5461,11 @@
         <v>1210.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1573.4:-793.4</t>
+          <t>186.486:1051.35</t>
         </is>
       </c>
     </row>
@@ -5483,11 +5483,11 @@
         <v>1075.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1427.7:-690.3</t>
+          <t>162.649:925.801</t>
         </is>
       </c>
     </row>
@@ -5505,11 +5505,11 @@
         <v>932.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-1275.9:-542.6</t>
+          <t>120.69:786.61</t>
         </is>
       </c>
     </row>
@@ -5527,11 +5527,11 @@
         <v>784.6999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1101.0:-436.4</t>
+          <t>100.7:695.1</t>
         </is>
       </c>
     </row>
@@ -5549,11 +5549,11 @@
         <v>644.1999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-933.7:-327.5</t>
+          <t>71.545:565.511</t>
         </is>
       </c>
     </row>
@@ -5571,11 +5571,11 @@
         <v>523.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-779.9:-245.2</t>
+          <t>50.686:468.15</t>
         </is>
       </c>
     </row>
@@ -5593,11 +5593,11 @@
         <v>406.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-628.9:-166.8</t>
+          <t>34.949:374.751</t>
         </is>
       </c>
     </row>
@@ -5615,11 +5615,11 @@
         <v>321.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-511.9:-115.7</t>
+          <t>23.399:306.1</t>
         </is>
       </c>
     </row>
@@ -5637,11 +5637,11 @@
         <v>244.1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-402.4:-72.3</t>
+          <t>16.55:242.05</t>
         </is>
       </c>
     </row>
@@ -5659,11 +5659,11 @@
         <v>179.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01</v>
+        <v>0.038</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-308.5:-38.6</t>
+          <t>15.25:187.3</t>
         </is>
       </c>
     </row>
@@ -5681,11 +5681,11 @@
         <v>129.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.014</v>
+        <v>0.042</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-230.0:-22.8</t>
+          <t>9.85:143.6</t>
         </is>
       </c>
     </row>
@@ -5703,11 +5703,11 @@
         <v>88.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.057</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-168.5:-4.5</t>
+          <t>7.55:107.85</t>
         </is>
       </c>
     </row>
@@ -5725,11 +5725,11 @@
         <v>54.99999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.263</v>
+        <v>0.127</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-113.2:6.5</t>
+          <t>10.6:78.4</t>
         </is>
       </c>
     </row>
@@ -5747,11 +5747,11 @@
         <v>31.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.428</v>
+        <v>0.266</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-75.3:13.4</t>
+          <t>9.1:59.25</t>
         </is>
       </c>
     </row>
@@ -5769,11 +5769,11 @@
         <v>12.3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.417</v>
+        <v>0.518</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-42.1:18.5</t>
+          <t>11.05:42.15</t>
         </is>
       </c>
     </row>
@@ -5791,11 +5791,11 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.965</v>
+        <v>0.949</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-22.0:21.3</t>
+          <t>11.45:32.65</t>
         </is>
       </c>
     </row>
@@ -5813,11 +5813,11 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.267</v>
+        <v>0.294</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-5.1:25.5</t>
+          <t>9.25:25.8</t>
         </is>
       </c>
     </row>
@@ -5835,11 +5835,11 @@
         <v>-15.1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.022</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.5:25.9</t>
+          <t>7.9:22.0</t>
         </is>
       </c>
     </row>
@@ -5857,11 +5857,11 @@
         <v>-17.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10.298:25.1</t>
+          <t>6.8:20.35</t>
         </is>
       </c>
     </row>
@@ -5879,11 +5879,11 @@
         <v>-19.4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>13.7:24.8</t>
+          <t>5.5:19.45</t>
         </is>
       </c>
     </row>
@@ -5901,11 +5901,11 @@
         <v>-20</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>14.6:24.8</t>
+          <t>5.199:19.101</t>
         </is>
       </c>
     </row>
@@ -5923,11 +5923,11 @@
         <v>-20.8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15.8:24.7</t>
+          <t>4.55:18.7</t>
         </is>
       </c>
     </row>
@@ -5945,11 +5945,11 @@
         <v>-22</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>17.4:25.4</t>
+          <t>3.699:18.4</t>
         </is>
       </c>
     </row>
@@ -5967,11 +5967,11 @@
         <v>-22.7</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>18.7:25.6</t>
+          <t>3.25:18.3</t>
         </is>
       </c>
     </row>
@@ -5989,11 +5989,11 @@
         <v>-22.9</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>19.0:25.8</t>
+          <t>3.05:18.3</t>
         </is>
       </c>
     </row>
@@ -6011,11 +6011,11 @@
         <v>-22.8</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>18.9:25.8</t>
+          <t>2.75:18.2</t>
         </is>
       </c>
     </row>
@@ -6033,11 +6033,11 @@
         <v>-22.3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>17.9:25.7</t>
+          <t>3.5:18.2</t>
         </is>
       </c>
     </row>
@@ -6055,11 +6055,11 @@
         <v>-22.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18.3:26.0</t>
+          <t>3.15:18.15</t>
         </is>
       </c>
     </row>
@@ -6077,11 +6077,11 @@
         <v>-22.6</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18.5:25.9</t>
+          <t>3.35:18.25</t>
         </is>
       </c>
     </row>
@@ -6099,11 +6099,11 @@
         <v>-22.6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>18.6:25.9</t>
+          <t>3.35:18.2</t>
         </is>
       </c>
     </row>
@@ -6121,11 +6121,11 @@
         <v>-22.7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>18.7:25.6</t>
+          <t>3.2:18.201</t>
         </is>
       </c>
     </row>
@@ -6143,11 +6143,11 @@
         <v>-22.9</v>
       </c>
       <c r="E39" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>18.8:25.6</t>
+          <t>3.0:18.201</t>
         </is>
       </c>
     </row>
@@ -6165,11 +6165,11 @@
         <v>-22.9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19.0:25.8</t>
+          <t>2.95:18.25</t>
         </is>
       </c>
     </row>
@@ -6187,11 +6187,11 @@
         <v>-22.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>18.4:25.2</t>
+          <t>3.25:18.05</t>
         </is>
       </c>
     </row>
@@ -6209,11 +6209,11 @@
         <v>-22.4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>18.1:25.2</t>
+          <t>3.55:18.2</t>
         </is>
       </c>
     </row>
@@ -6231,11 +6231,11 @@
         <v>-22.7</v>
       </c>
       <c r="E43" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>18.7:25.0</t>
+          <t>3.0:18.3</t>
         </is>
       </c>
     </row>

--- a/reports/TS_Speck_significant_times.xlsx
+++ b/reports/TS_Speck_significant_times.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ATP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MCC950_ATP" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MCC950_MSU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MCC950_Nigericin" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MSU" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Nigericin" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_ATP" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_MSU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_Nigericin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSU" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nigericin" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,11 +479,11 @@
         <v>32.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.111</v>
+        <v>0.122</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>39.7:78.05</t>
+          <t>40.249:77.85</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>40.848:88.851</t>
+          <t>41.75:88.851</t>
         </is>
       </c>
     </row>
@@ -523,11 +523,11 @@
         <v>55.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06</v>
+        <v>0.067</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>39.6:98.3</t>
+          <t>38.649:98.65</t>
         </is>
       </c>
     </row>
@@ -545,11 +545,11 @@
         <v>56.39999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.061</v>
+        <v>0.046</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>40.399:98.25</t>
+          <t>40.2:98.55</t>
         </is>
       </c>
     </row>
@@ -567,11 +567,11 @@
         <v>60.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>38.549:102.8</t>
+          <t>38.799:102.85</t>
         </is>
       </c>
     </row>
@@ -589,11 +589,11 @@
         <v>59.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>39.893:101.85</t>
+          <t>38.6:101.051</t>
         </is>
       </c>
     </row>
@@ -611,11 +611,11 @@
         <v>55.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.047</v>
+        <v>0.057</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>40.499:97.7</t>
+          <t>40.9:97.151</t>
         </is>
       </c>
     </row>
@@ -633,11 +633,11 @@
         <v>52.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.049</v>
+        <v>0.062</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>40.05:95.95</t>
+          <t>40.0:95.45</t>
         </is>
       </c>
     </row>
@@ -655,11 +655,11 @@
         <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>0.059</v>
+        <v>0.064</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>41.65:87.852</t>
+          <t>41.9:87.85</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         <v>35.39999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.081</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>41.85:79.15</t>
+          <t>42.05:79.05</t>
         </is>
       </c>
     </row>
@@ -699,11 +699,11 @@
         <v>31.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>42.2:76.0</t>
+          <t>41.9:76.15</t>
         </is>
       </c>
     </row>
@@ -721,11 +721,11 @@
         <v>19.39999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.137</v>
+        <v>0.15</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41.45:65.7</t>
+          <t>41.85:65.55</t>
         </is>
       </c>
     </row>
@@ -743,11 +743,11 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>41.4:61.2</t>
+          <t>41.3:61.2</t>
         </is>
       </c>
     </row>
@@ -765,11 +765,11 @@
         <v>11.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.299</v>
+        <v>0.28</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>40.4:59.351</t>
+          <t>40.5:59.25</t>
         </is>
       </c>
     </row>
@@ -787,11 +787,11 @@
         <v>8.899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.335</v>
+        <v>0.351</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>40.55:57.4</t>
+          <t>40.6:57.6</t>
         </is>
       </c>
     </row>
@@ -809,11 +809,11 @@
         <v>4.399999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.605</v>
+        <v>0.578</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>39.55:54.0</t>
+          <t>39.5:54.1</t>
         </is>
       </c>
     </row>
@@ -831,11 +831,11 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="E18" t="n">
-        <v>0.967</v>
+        <v>0.959</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>37.05:51.25</t>
+          <t>36.75:51.25</t>
         </is>
       </c>
     </row>
@@ -853,11 +853,11 @@
         <v>-1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.865</v>
+        <v>0.859</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>35.9:51.051</t>
+          <t>36.0:51.0</t>
         </is>
       </c>
     </row>
@@ -875,11 +875,11 @@
         <v>-4.700000000000003</v>
       </c>
       <c r="E20" t="n">
-        <v>0.577</v>
+        <v>0.551</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>34.55:49.1</t>
+          <t>34.35:49.0</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
         <v>-6.400000000000006</v>
       </c>
       <c r="E21" t="n">
-        <v>0.437</v>
+        <v>0.453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>33.4:48.1</t>
+          <t>33.5:48.15</t>
         </is>
       </c>
     </row>
@@ -919,11 +919,11 @@
         <v>-7.600000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.386</v>
+        <v>0.375</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>32.649:47.75</t>
+          <t>32.6:47.6</t>
         </is>
       </c>
     </row>
@@ -941,11 +941,11 @@
         <v>-7.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>32.65:47.95</t>
+          <t>32.55:47.85</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30.8:46.451</t>
+          <t>31.0:46.5</t>
         </is>
       </c>
     </row>
@@ -985,11 +985,11 @@
         <v>-12.3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.144</v>
+        <v>0.152</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>29.95:45.35</t>
+          <t>29.65:45.35</t>
         </is>
       </c>
     </row>
@@ -1007,11 +1007,11 @@
         <v>-12.8</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132</v>
+        <v>0.113</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>29.5:45.15</t>
+          <t>29.45:45.05</t>
         </is>
       </c>
     </row>
@@ -1029,11 +1029,11 @@
         <v>-12.7</v>
       </c>
       <c r="E27" t="n">
-        <v>0.146</v>
+        <v>0.151</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>29.099:45.8</t>
+          <t>29.25:45.85</t>
         </is>
       </c>
     </row>
@@ -1051,11 +1051,11 @@
         <v>-13.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.137</v>
+        <v>0.151</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>28.2:45.75</t>
+          <t>28.5:45.601</t>
         </is>
       </c>
     </row>
@@ -1073,11 +1073,11 @@
         <v>-14.9</v>
       </c>
       <c r="E29" t="n">
-        <v>0.098</v>
+        <v>0.136</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>27.4:45.25</t>
+          <t>27.5:45.25</t>
         </is>
       </c>
     </row>
@@ -1095,11 +1095,11 @@
         <v>-13.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.145</v>
+        <v>0.152</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>28.5:45.7</t>
+          <t>28.5:45.5</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1117,11 @@
         <v>-14.8</v>
       </c>
       <c r="E31" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>27.9:45.15</t>
+          <t>27.5:45.101</t>
         </is>
       </c>
     </row>
@@ -1139,11 +1139,11 @@
         <v>-16.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>26.55:44.9</t>
+          <t>26.55:45.2</t>
         </is>
       </c>
     </row>
@@ -1161,11 +1161,11 @@
         <v>-12.8</v>
       </c>
       <c r="E33" t="n">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>28.85:46.8</t>
+          <t>28.6:46.95</t>
         </is>
       </c>
     </row>
@@ -1183,11 +1183,11 @@
         <v>-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.197</v>
+        <v>0.183</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>27.7:46.75</t>
+          <t>27.55:46.6</t>
         </is>
       </c>
     </row>
@@ -1205,11 +1205,11 @@
         <v>-16.2</v>
       </c>
       <c r="E35" t="n">
-        <v>0.138</v>
+        <v>0.123</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>26.05:45.801</t>
+          <t>26.299:46.0</t>
         </is>
       </c>
     </row>
@@ -1227,11 +1227,11 @@
         <v>-13.8</v>
       </c>
       <c r="E36" t="n">
-        <v>0.197</v>
+        <v>0.221</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>27.449:47.6</t>
+          <t>27.349:47.451</t>
         </is>
       </c>
     </row>
@@ -1249,11 +1249,11 @@
         <v>-14.6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.166</v>
+        <v>0.183</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>27.099:47.0</t>
+          <t>27.3:46.801</t>
         </is>
       </c>
     </row>
@@ -1271,11 +1271,11 @@
         <v>-16.3</v>
       </c>
       <c r="E38" t="n">
-        <v>0.127</v>
+        <v>0.115</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>25.8:45.801</t>
+          <t>26.2:46.05</t>
         </is>
       </c>
     </row>
@@ -1293,11 +1293,11 @@
         <v>-15.2</v>
       </c>
       <c r="E39" t="n">
-        <v>0.198</v>
+        <v>0.194</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>25.9:47.35</t>
+          <t>26.1:47.2</t>
         </is>
       </c>
     </row>
@@ -1315,11 +1315,11 @@
         <v>-12.6</v>
       </c>
       <c r="E40" t="n">
-        <v>0.259</v>
+        <v>0.271</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>28.049:48.05</t>
+          <t>28.05:48.301</t>
         </is>
       </c>
     </row>
@@ -1337,11 +1337,11 @@
         <v>-13.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.246</v>
+        <v>0.234</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>26.55:48.501</t>
+          <t>26.75:48.501</t>
         </is>
       </c>
     </row>
@@ -1359,11 +1359,11 @@
         <v>-13.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.284</v>
+        <v>0.268</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>27.05:48.75</t>
+          <t>26.949:48.8</t>
         </is>
       </c>
     </row>
@@ -1381,11 +1381,11 @@
         <v>-12.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.253</v>
+        <v>0.29</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>27.8:48.35</t>
+          <t>27.95:48.55</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         <v>2.800000000000011</v>
       </c>
       <c r="E2" t="n">
-        <v>0.904</v>
+        <v>0.923</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>221.4:274.7</t>
+          <t>221.0:274.5</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1471,11 @@
         <v>-5.199999999999989</v>
       </c>
       <c r="E3" t="n">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>219.3:270.1</t>
+          <t>220.1:269.7</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1493,11 @@
         <v>-14.79999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.642</v>
+        <v>0.649</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>214.7:264.2</t>
+          <t>214.6:264.102</t>
         </is>
       </c>
     </row>
@@ -1515,11 +1515,11 @@
         <v>-17.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.575</v>
+        <v>0.586</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>213.1:263.4</t>
+          <t>213.1:263.802</t>
         </is>
       </c>
     </row>
@@ -1537,11 +1537,11 @@
         <v>-31.39999999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.281</v>
+        <v>0.275</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>207.2:255.6</t>
+          <t>206.298:255.602</t>
         </is>
       </c>
     </row>
@@ -1559,11 +1559,11 @@
         <v>-37.19999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21</v>
+        <v>0.196</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>202.698:255.1</t>
+          <t>202.2:255.2</t>
         </is>
       </c>
     </row>
@@ -1581,11 +1581,11 @@
         <v>-43.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>198.6:253.8</t>
+          <t>198.3:253.502</t>
         </is>
       </c>
     </row>
@@ -1603,11 +1603,11 @@
         <v>-47.19999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.073</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>197.6:249.6</t>
+          <t>197.0:250.1</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>-55.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.079</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1647,11 +1647,11 @@
         <v>-62.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.042</v>
+        <v>0.036</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>185.0:247.6</t>
+          <t>185.7:247.2</t>
         </is>
       </c>
     </row>
@@ -1669,11 +1669,11 @@
         <v>-68</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>182.898:243.5</t>
+          <t>183.998:243.7</t>
         </is>
       </c>
     </row>
@@ -1691,11 +1691,11 @@
         <v>-68.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.024</v>
+        <v>0.017</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>182.6:243.9</t>
+          <t>181.7:243.902</t>
         </is>
       </c>
     </row>
@@ -1713,11 +1713,11 @@
         <v>-76.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>176.495:242.0</t>
+          <t>176.5:242.2</t>
         </is>
       </c>
     </row>
@@ -1735,11 +1735,11 @@
         <v>-84</v>
       </c>
       <c r="E15" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>170.698:240.0</t>
+          <t>171.3:240.5</t>
         </is>
       </c>
     </row>
@@ -1757,11 +1757,11 @@
         <v>-85.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>169.898:238.8</t>
+          <t>170.9:238.2</t>
         </is>
       </c>
     </row>
@@ -1779,11 +1779,11 @@
         <v>-84</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>171.3:239.2</t>
+          <t>171.298:238.4</t>
         </is>
       </c>
     </row>
@@ -1801,11 +1801,11 @@
         <v>-80.19999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>173.1:242.002</t>
+          <t>174.2:241.202</t>
         </is>
       </c>
     </row>
@@ -1823,11 +1823,11 @@
         <v>-71.79999999999998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>179.6:242.203</t>
+          <t>180.3:242.8</t>
         </is>
       </c>
     </row>
@@ -1845,11 +1845,11 @@
         <v>-64.39999999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>184.898:245.0</t>
+          <t>184.8:245.802</t>
         </is>
       </c>
     </row>
@@ -1867,11 +1867,11 @@
         <v>-57.79999999999998</v>
       </c>
       <c r="E21" t="n">
-        <v>0.051</v>
+        <v>0.04</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>189.7:247.2</t>
+          <t>190.3:247.5</t>
         </is>
       </c>
     </row>
@@ -1889,11 +1889,11 @@
         <v>-49.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.079</v>
+        <v>0.067</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>196.2:248.8</t>
+          <t>195.2:248.4</t>
         </is>
       </c>
     </row>
@@ -1911,11 +1911,11 @@
         <v>-33.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.262</v>
+        <v>0.269</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>205.1:256.4</t>
+          <t>204.6:256.7</t>
         </is>
       </c>
     </row>
@@ -1933,11 +1933,11 @@
         <v>-26</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4</v>
+        <v>0.363</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>208.598:261.0</t>
+          <t>208.9:261.1</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>212.7:260.7</t>
+          <t>212.698:260.7</t>
         </is>
       </c>
     </row>
@@ -1977,11 +1977,11 @@
         <v>-5.599999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.864</v>
+        <v>0.861</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>218.9:270.1</t>
+          <t>220.2:270.2</t>
         </is>
       </c>
     </row>
@@ -1999,11 +1999,11 @@
         <v>-11.39999999999998</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.665</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>219.1:265.5</t>
+          <t>217.9:265.6</t>
         </is>
       </c>
     </row>
@@ -2021,11 +2021,11 @@
         <v>7.600000000000023</v>
       </c>
       <c r="E28" t="n">
-        <v>0.805</v>
+        <v>0.78</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>228.2:274.6</t>
+          <t>228.7:274.9</t>
         </is>
       </c>
     </row>
@@ -2043,11 +2043,11 @@
         <v>21.40000000000003</v>
       </c>
       <c r="E29" t="n">
-        <v>0.45</v>
+        <v>0.497</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>234.298:283.7</t>
+          <t>234.2:283.9</t>
         </is>
       </c>
     </row>
@@ -2065,11 +2065,11 @@
         <v>31.19999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.269</v>
+        <v>0.292</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>239.4:288.6</t>
+          <t>240.0:289.0</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
         <v>38.80000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.172</v>
+        <v>0.191</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>242.2:295.0</t>
+          <t>242.0:295.2</t>
         </is>
       </c>
     </row>
@@ -2109,11 +2109,11 @@
         <v>51</v>
       </c>
       <c r="E32" t="n">
-        <v>0.083</v>
+        <v>0.108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>244.7:303.7</t>
+          <t>245.1:303.5</t>
         </is>
       </c>
     </row>
@@ -2131,11 +2131,11 @@
         <v>49.60000000000002</v>
       </c>
       <c r="E33" t="n">
-        <v>0.132</v>
+        <v>0.131</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>244.0:303.7</t>
+          <t>243.8:303.8</t>
         </is>
       </c>
     </row>
@@ -2153,11 +2153,11 @@
         <v>72.60000000000002</v>
       </c>
       <c r="E34" t="n">
-        <v>0.053</v>
+        <v>0.059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>249.598:320.5</t>
+          <t>249.398:320.903</t>
         </is>
       </c>
     </row>
@@ -2175,11 +2175,11 @@
         <v>88.40000000000003</v>
       </c>
       <c r="E35" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>254.298:331.802</t>
+          <t>254.498:331.0</t>
         </is>
       </c>
     </row>
@@ -2197,11 +2197,11 @@
         <v>87.60000000000002</v>
       </c>
       <c r="E36" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>256.798:328.8</t>
+          <t>256.898:329.6</t>
         </is>
       </c>
     </row>
@@ -2219,11 +2219,11 @@
         <v>103.4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>261.0:341.5</t>
+          <t>260.998:340.4</t>
         </is>
       </c>
     </row>
@@ -2241,11 +2241,11 @@
         <v>122</v>
       </c>
       <c r="E38" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>263.598:355.7</t>
+          <t>263.6:355.6</t>
         </is>
       </c>
     </row>
@@ -2263,11 +2263,11 @@
         <v>127</v>
       </c>
       <c r="E39" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>262.2:362.3</t>
+          <t>263.295:362.302</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>266.998:372.403</t>
+          <t>268.3:372.703</t>
         </is>
       </c>
     </row>
@@ -2307,11 +2307,11 @@
         <v>146.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>267.598:374.802</t>
+          <t>267.6:376.2</t>
         </is>
       </c>
     </row>
@@ -2329,11 +2329,11 @@
         <v>157.6</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>269.698:384.1</t>
+          <t>269.1:383.0</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>272.8:399.1</t>
+          <t>271.4:398.4</t>
         </is>
       </c>
     </row>
@@ -2419,11 +2419,11 @@
         <v>-8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.829</v>
+        <v>0.848</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>191.898:259.7</t>
+          <t>192.3:259.1</t>
         </is>
       </c>
     </row>
@@ -2441,11 +2441,11 @@
         <v>-22.19999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>184.7:252.1</t>
+          <t>183.098:251.5</t>
         </is>
       </c>
     </row>
@@ -2463,11 +2463,11 @@
         <v>-29.79999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.435</v>
+        <v>0.42</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>180.298:246.8</t>
+          <t>180.4:247.5</t>
         </is>
       </c>
     </row>
@@ -2485,11 +2485,11 @@
         <v>-27.19999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.456</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>180.8:249.5</t>
+          <t>181.5:249.3</t>
         </is>
       </c>
     </row>
@@ -2507,11 +2507,11 @@
         <v>-26.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.508</v>
+        <v>0.502</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>182.1:248.8</t>
+          <t>182.5:248.6</t>
         </is>
       </c>
     </row>
@@ -2529,11 +2529,11 @@
         <v>-19.79999999999998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>186.0:252.6</t>
+          <t>186.098:251.7</t>
         </is>
       </c>
     </row>
@@ -2551,11 +2551,11 @@
         <v>-19</v>
       </c>
       <c r="E8" t="n">
-        <v>0.624</v>
+        <v>0.583</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>187.4:252.0</t>
+          <t>186.6:251.3</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>195.4:261.0</t>
+          <t>195.0:259.903</t>
         </is>
       </c>
     </row>
@@ -2595,11 +2595,11 @@
         <v>8.200000000000017</v>
       </c>
       <c r="E10" t="n">
-        <v>0.848</v>
+        <v>0.851</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>201.3:265.8</t>
+          <t>200.695:266.2</t>
         </is>
       </c>
     </row>
@@ -2617,11 +2617,11 @@
         <v>14.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.724</v>
+        <v>0.708</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>202.2:272.403</t>
+          <t>202.2:270.6</t>
         </is>
       </c>
     </row>
@@ -2639,11 +2639,11 @@
         <v>29.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.482</v>
+        <v>0.497</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>208.898:280.302</t>
+          <t>208.7:280.1</t>
         </is>
       </c>
     </row>
@@ -2661,11 +2661,11 @@
         <v>37.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4</v>
+        <v>0.364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>210.0:286.9</t>
+          <t>210.0:285.903</t>
         </is>
       </c>
     </row>
@@ -2683,11 +2683,11 @@
         <v>47.79999999999998</v>
       </c>
       <c r="E14" t="n">
-        <v>0.271</v>
+        <v>0.274</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>214.1:292.903</t>
+          <t>215.098:292.5</t>
         </is>
       </c>
     </row>
@@ -2705,11 +2705,11 @@
         <v>61.20000000000002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.224</v>
+        <v>0.206</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>216.3:302.8</t>
+          <t>215.998:303.5</t>
         </is>
       </c>
     </row>
@@ -2727,11 +2727,11 @@
         <v>68.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.146</v>
+        <v>0.14</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>221.1:307.1</t>
+          <t>220.0:305.403</t>
         </is>
       </c>
     </row>
@@ -2749,11 +2749,11 @@
         <v>89.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.081</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>228.2:321.005</t>
+          <t>228.2:321.0</t>
         </is>
       </c>
     </row>
@@ -2771,11 +2771,11 @@
         <v>100.8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>231.098:328.4</t>
+          <t>231.9:328.0</t>
         </is>
       </c>
     </row>
@@ -2793,11 +2793,11 @@
         <v>122.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.037</v>
+        <v>0.042</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>233.9:347.305</t>
+          <t>233.7:345.4</t>
         </is>
       </c>
     </row>
@@ -2815,11 +2815,11 @@
         <v>138.8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.031</v>
+        <v>0.022</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>237.895:357.8</t>
+          <t>236.998:359.405</t>
         </is>
       </c>
     </row>
@@ -2837,11 +2837,11 @@
         <v>134.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>236.1:354.602</t>
+          <t>234.998:356.2</t>
         </is>
       </c>
     </row>
@@ -2859,11 +2859,11 @@
         <v>149.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>241.998:365.4</t>
+          <t>240.3:365.802</t>
         </is>
       </c>
     </row>
@@ -2881,11 +2881,11 @@
         <v>167</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>246.2:378.003</t>
+          <t>243.6:378.6</t>
         </is>
       </c>
     </row>
@@ -2903,11 +2903,11 @@
         <v>178.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>248.9:387.002</t>
+          <t>250.598:384.002</t>
         </is>
       </c>
     </row>
@@ -2925,11 +2925,11 @@
         <v>191.2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>251.2:396.505</t>
+          <t>250.298:395.7</t>
         </is>
       </c>
     </row>
@@ -2947,11 +2947,11 @@
         <v>192.2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>253.098:395.8</t>
+          <t>253.7:395.5</t>
         </is>
       </c>
     </row>
@@ -2969,11 +2969,11 @@
         <v>202.6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>256.2:404.2</t>
+          <t>254.198:404.102</t>
         </is>
       </c>
     </row>
@@ -2991,11 +2991,11 @@
         <v>218</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>260.7:415.102</t>
+          <t>259.298:414.303</t>
         </is>
       </c>
     </row>
@@ -3013,11 +3013,11 @@
         <v>226</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>261.098:421.9</t>
+          <t>260.8:421.003</t>
         </is>
       </c>
     </row>
@@ -3035,11 +3035,11 @@
         <v>234</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>264.298:426.403</t>
+          <t>263.898:427.0</t>
         </is>
       </c>
     </row>
@@ -3057,11 +3057,11 @@
         <v>244</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>262.8:435.305</t>
+          <t>265.698:435.1</t>
         </is>
       </c>
     </row>
@@ -3079,11 +3079,11 @@
         <v>251</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>263.5:440.803</t>
+          <t>261.598:442.0</t>
         </is>
       </c>
     </row>
@@ -3101,11 +3101,11 @@
         <v>259.2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>268.1:447.102</t>
+          <t>268.598:446.505</t>
         </is>
       </c>
     </row>
@@ -3123,11 +3123,11 @@
         <v>278.8</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>271.498:463.502</t>
+          <t>274.098:461.305</t>
         </is>
       </c>
     </row>
@@ -3145,11 +3145,11 @@
         <v>296.8</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>273.9:478.905</t>
+          <t>274.898:475.4</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>279.2:486.903</t>
+          <t>275.498:483.0</t>
         </is>
       </c>
     </row>
@@ -3189,11 +3189,11 @@
         <v>327</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>279.598:503.102</t>
+          <t>280.1:503.008</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>278.498:503.307</t>
+          <t>277.398:501.302</t>
         </is>
       </c>
     </row>
@@ -3233,11 +3233,11 @@
         <v>341.6</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>278.095:512.505</t>
+          <t>281.698:512.0</t>
         </is>
       </c>
     </row>
@@ -3255,11 +3255,11 @@
         <v>356</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>288.7:523.703</t>
+          <t>286.8:525.4</t>
         </is>
       </c>
     </row>
@@ -3277,11 +3277,11 @@
         <v>374.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>291.7:538.608</t>
+          <t>290.5:540.21</t>
         </is>
       </c>
     </row>
@@ -3299,11 +3299,11 @@
         <v>396.4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>290.1:557.8</t>
+          <t>288.9:556.8</t>
         </is>
       </c>
     </row>
@@ -3321,11 +3321,11 @@
         <v>404.8</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>292.198:558.902</t>
+          <t>299.0:561.8</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>235.898:323.8</t>
+          <t>235.2:325.0</t>
         </is>
       </c>
     </row>
@@ -3411,11 +3411,11 @@
         <v>291.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>271.4:455.3</t>
+          <t>271.2:457.702</t>
         </is>
       </c>
     </row>
@@ -3433,11 +3433,11 @@
         <v>421.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>296.195:563.802</t>
+          <t>296.298:560.502</t>
         </is>
       </c>
     </row>
@@ -3455,11 +3455,11 @@
         <v>519.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>316.5:638.8</t>
+          <t>316.498:639.5</t>
         </is>
       </c>
     </row>
@@ -3477,11 +3477,11 @@
         <v>599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>331.9:703.502</t>
+          <t>331.0:703.4</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>341.298:737.402</t>
+          <t>339.7:736.1</t>
         </is>
       </c>
     </row>
@@ -3521,11 +3521,11 @@
         <v>679</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>349.4:766.0</t>
+          <t>347.898:766.5</t>
         </is>
       </c>
     </row>
@@ -3543,11 +3543,11 @@
         <v>698</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>351.098:782.102</t>
+          <t>349.5:782.2</t>
         </is>
       </c>
     </row>
@@ -3565,11 +3565,11 @@
         <v>702.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>350.498:789.203</t>
+          <t>346.595:788.0</t>
         </is>
       </c>
     </row>
@@ -3587,11 +3587,11 @@
         <v>690.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>345.4:777.6</t>
+          <t>346.6:775.7</t>
         </is>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
         <v>662.2</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>337.3:754.102</t>
+          <t>342.0:754.4</t>
         </is>
       </c>
     </row>
@@ -3631,11 +3631,11 @@
         <v>631.4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>335.698:731.903</t>
+          <t>335.4:731.002</t>
         </is>
       </c>
     </row>
@@ -3653,11 +3653,11 @@
         <v>578.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>326.0:687.502</t>
+          <t>326.8:686.602</t>
         </is>
       </c>
     </row>
@@ -3675,11 +3675,11 @@
         <v>521</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>315.795:642.102</t>
+          <t>313.998:641.007</t>
         </is>
       </c>
     </row>
@@ -3697,11 +3697,11 @@
         <v>445.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>300.998:583.505</t>
+          <t>299.893:579.7</t>
         </is>
       </c>
     </row>
@@ -3719,11 +3719,11 @@
         <v>375.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>288.0:524.2</t>
+          <t>284.9:525.0</t>
         </is>
       </c>
     </row>
@@ -3741,11 +3741,11 @@
         <v>310.4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>274.798:474.2</t>
+          <t>276.8:472.6</t>
         </is>
       </c>
     </row>
@@ -3763,11 +3763,11 @@
         <v>258</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>261.798:430.61</t>
+          <t>263.598:430.602</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>258.0:405.0</t>
+          <t>259.2:405.2</t>
         </is>
       </c>
     </row>
@@ -3807,11 +3807,11 @@
         <v>219.6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>256.9:400.7</t>
+          <t>257.798:398.5</t>
         </is>
       </c>
     </row>
@@ -3829,11 +3829,11 @@
         <v>226.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>255.7:406.2</t>
+          <t>255.898:404.7</t>
         </is>
       </c>
     </row>
@@ -3851,11 +3851,11 @@
         <v>242.2</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>259.298:419.7</t>
+          <t>260.398:417.105</t>
         </is>
       </c>
     </row>
@@ -3873,11 +3873,11 @@
         <v>270.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>266.398:439.6</t>
+          <t>265.4:442.0</t>
         </is>
       </c>
     </row>
@@ -3895,11 +3895,11 @@
         <v>282.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>268.895:450.403</t>
+          <t>270.0:450.8</t>
         </is>
       </c>
     </row>
@@ -3917,11 +3917,11 @@
         <v>302.6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>275.3:465.5</t>
+          <t>270.498:467.8</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>277.09:473.505</t>
+          <t>273.898:473.902</t>
         </is>
       </c>
     </row>
@@ -3961,11 +3961,11 @@
         <v>313.4</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>274.495:477.302</t>
+          <t>273.793:476.8</t>
         </is>
       </c>
     </row>
@@ -3983,11 +3983,11 @@
         <v>318.6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>277.1:480.403</t>
+          <t>276.798:480.302</t>
         </is>
       </c>
     </row>
@@ -4005,11 +4005,11 @@
         <v>303</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>272.793:466.602</t>
+          <t>272.6:466.202</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>273.193:468.0</t>
+          <t>273.093:466.702</t>
         </is>
       </c>
     </row>
@@ -4049,11 +4049,11 @@
         <v>301</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>272.3:465.402</t>
+          <t>271.0:464.5</t>
         </is>
       </c>
     </row>
@@ -4071,11 +4071,11 @@
         <v>291.4</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>268.5:459.302</t>
+          <t>271.4:456.302</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>268.698:458.803</t>
+          <t>265.4:459.5</t>
         </is>
       </c>
     </row>
@@ -4115,11 +4115,11 @@
         <v>317.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>273.4:478.403</t>
+          <t>273.7:479.005</t>
         </is>
       </c>
     </row>
@@ -4137,11 +4137,11 @@
         <v>321.4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>277.295:481.002</t>
+          <t>276.095:480.5</t>
         </is>
       </c>
     </row>
@@ -4159,11 +4159,11 @@
         <v>322</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>275.698:480.602</t>
+          <t>273.5:481.702</t>
         </is>
       </c>
     </row>
@@ -4181,11 +4181,11 @@
         <v>308.8</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>272.0:472.8</t>
+          <t>275.498:472.5</t>
         </is>
       </c>
     </row>
@@ -4203,11 +4203,11 @@
         <v>281</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>266.998:450.805</t>
+          <t>270.1:451.702</t>
         </is>
       </c>
     </row>
@@ -4225,11 +4225,11 @@
         <v>250.6</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>261.695:423.5</t>
+          <t>263.598:422.2</t>
         </is>
       </c>
     </row>
@@ -4247,11 +4247,11 @@
         <v>211.4</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>254.698:392.802</t>
+          <t>253.3:393.1</t>
         </is>
       </c>
     </row>
@@ -4269,11 +4269,11 @@
         <v>169.6</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>246.295:360.403</t>
+          <t>247.198:361.1</t>
         </is>
       </c>
     </row>
@@ -4291,11 +4291,11 @@
         <v>131</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>240.098:329.1</t>
+          <t>239.8:329.3</t>
         </is>
       </c>
     </row>
@@ -4353,17 +4353,17 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>255.2857142857143</v>
+        <v>337</v>
       </c>
       <c r="D2" t="n">
-        <v>58.21428571428569</v>
+        <v>67.19999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.475</v>
+        <v>0.171</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>154.284:298.861</t>
+          <t>255.998:347.3</t>
         </is>
       </c>
     </row>
@@ -4375,17 +4375,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>426.9285714285714</v>
+        <v>518</v>
       </c>
       <c r="D3" t="n">
-        <v>229.8571428571429</v>
+        <v>248.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.021</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>202.676:411.929</t>
+          <t>287.398:489.002</t>
         </is>
       </c>
     </row>
@@ -4397,17 +4397,17 @@
         <v>1.5</v>
       </c>
       <c r="C4" t="n">
-        <v>611.0714285714286</v>
+        <v>705.6</v>
       </c>
       <c r="D4" t="n">
-        <v>414</v>
+        <v>435.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>255.212:536.396</t>
+          <t>318.692:638.81</t>
         </is>
       </c>
     </row>
@@ -4419,17 +4419,17 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9285714285714</v>
+        <v>878.4</v>
       </c>
       <c r="D5" t="n">
-        <v>580.8571428571429</v>
+        <v>608.5999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>291.926:666.358</t>
+          <t>340.0:779.21</t>
         </is>
       </c>
     </row>
@@ -4441,17 +4441,17 @@
         <v>2.5</v>
       </c>
       <c r="C6" t="n">
-        <v>934</v>
+        <v>1041.2</v>
       </c>
       <c r="D6" t="n">
-        <v>736.9285714285714</v>
+        <v>771.4000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>322.104:782.146</t>
+          <t>372.898:916.007</t>
         </is>
       </c>
     </row>
@@ -4463,17 +4463,17 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1057.285714285714</v>
+        <v>1166.8</v>
       </c>
       <c r="D7" t="n">
-        <v>860.2142857142857</v>
+        <v>897</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>348.285:876.657</t>
+          <t>395.89:1017.5</t>
         </is>
       </c>
     </row>
@@ -4485,17 +4485,17 @@
         <v>3.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.571428571429</v>
+        <v>1260.4</v>
       </c>
       <c r="D8" t="n">
-        <v>957.5000000000001</v>
+        <v>990.6000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>379.053:943.609</t>
+          <t>401.398:1091.808</t>
         </is>
       </c>
     </row>
@@ -4507,17 +4507,17 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1227.785714285714</v>
+        <v>1338</v>
       </c>
       <c r="D9" t="n">
-        <v>1030.714285714286</v>
+        <v>1068.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>385.799:1004.108</t>
+          <t>398.8:1171.3</t>
         </is>
       </c>
     </row>
@@ -4529,17 +4529,17 @@
         <v>4.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1286.357142857143</v>
+        <v>1398.4</v>
       </c>
       <c r="D10" t="n">
-        <v>1089.285714285714</v>
+        <v>1128.6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>395.676:1058.15</t>
+          <t>420.99:1205.7</t>
         </is>
       </c>
     </row>
@@ -4551,17 +4551,17 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1324.5</v>
+        <v>1439.2</v>
       </c>
       <c r="D11" t="n">
-        <v>1127.428571428571</v>
+        <v>1169.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>417.922:1083.001</t>
+          <t>418.295:1246.802</t>
         </is>
       </c>
     </row>
@@ -4573,17 +4573,17 @@
         <v>5.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1335.285714285714</v>
+        <v>1455.4</v>
       </c>
       <c r="D12" t="n">
-        <v>1138.214285714286</v>
+        <v>1185.6</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>411.028:1091.001</t>
+          <t>417.493:1251.9</t>
         </is>
       </c>
     </row>
@@ -4595,17 +4595,17 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1351.5</v>
+        <v>1476</v>
       </c>
       <c r="D13" t="n">
-        <v>1154.428571428571</v>
+        <v>1206.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>403.856:1103.153</t>
+          <t>435.198:1276.5</t>
         </is>
       </c>
     </row>
@@ -4617,17 +4617,17 @@
         <v>6.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1340.214285714286</v>
+        <v>1465.6</v>
       </c>
       <c r="D14" t="n">
-        <v>1143.142857142857</v>
+        <v>1195.8</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>412.281:1096.727</t>
+          <t>411.0:1265.403</t>
         </is>
       </c>
     </row>
@@ -4639,17 +4639,17 @@
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>1323.357142857143</v>
+        <v>1450.6</v>
       </c>
       <c r="D15" t="n">
-        <v>1126.285714285714</v>
+        <v>1180.8</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>411.815:1085.222</t>
+          <t>417.995:1252.0</t>
         </is>
       </c>
     </row>
@@ -4661,17 +4661,17 @@
         <v>7.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1294</v>
+        <v>1419.2</v>
       </c>
       <c r="D16" t="n">
-        <v>1096.928571428571</v>
+        <v>1149.4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>403.171:1059.411</t>
+          <t>411.8:1225.008</t>
         </is>
       </c>
     </row>
@@ -4683,17 +4683,17 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1266.142857142857</v>
+        <v>1389.6</v>
       </c>
       <c r="D17" t="n">
-        <v>1069.071428571428</v>
+        <v>1119.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>391.917:1030.716</t>
+          <t>400.798:1204.4</t>
         </is>
       </c>
     </row>
@@ -4705,17 +4705,17 @@
         <v>8.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1232.714285714286</v>
+        <v>1358.6</v>
       </c>
       <c r="D18" t="n">
-        <v>1035.642857142857</v>
+        <v>1088.8</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>386.238:1016.467</t>
+          <t>394.495:1178.9</t>
         </is>
       </c>
     </row>
@@ -4727,17 +4727,17 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>1194.214285714286</v>
+        <v>1322.4</v>
       </c>
       <c r="D19" t="n">
-        <v>997.1428571428572</v>
+        <v>1052.6</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>360.856:985.147</t>
+          <t>387.198:1145.5</t>
         </is>
       </c>
     </row>
@@ -4749,17 +4749,17 @@
         <v>9.5</v>
       </c>
       <c r="C20" t="n">
-        <v>1144.285714285714</v>
+        <v>1275.8</v>
       </c>
       <c r="D20" t="n">
-        <v>947.2142857142857</v>
+        <v>1006</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>355.283:944.396</t>
+          <t>397.993:1110.602</t>
         </is>
       </c>
     </row>
@@ -4771,17 +4771,17 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>1097.142857142857</v>
+        <v>1232.2</v>
       </c>
       <c r="D21" t="n">
-        <v>900.0714285714286</v>
+        <v>962.4000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>340.141:909.503</t>
+          <t>381.393:1068.5</t>
         </is>
       </c>
     </row>
@@ -4793,17 +4793,17 @@
         <v>10.5</v>
       </c>
       <c r="C22" t="n">
-        <v>1055.428571428571</v>
+        <v>1188.4</v>
       </c>
       <c r="D22" t="n">
-        <v>858.3571428571428</v>
+        <v>918.6000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>341.106:884.362</t>
+          <t>373.995:1043.205</t>
         </is>
       </c>
     </row>
@@ -4815,17 +4815,17 @@
         <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>1014.285714285714</v>
+        <v>1150</v>
       </c>
       <c r="D23" t="n">
-        <v>817.2142857142858</v>
+        <v>880.2</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>338.035:852.037</t>
+          <t>365.295:1006.115</t>
         </is>
       </c>
     </row>
@@ -4837,17 +4837,17 @@
         <v>11.5</v>
       </c>
       <c r="C24" t="n">
-        <v>953.2142857142857</v>
+        <v>1082.6</v>
       </c>
       <c r="D24" t="n">
-        <v>756.1428571428571</v>
+        <v>812.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>313.997:805.501</t>
+          <t>354.89:950.105</t>
         </is>
       </c>
     </row>
@@ -4859,17 +4859,17 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>912.2857142857143</v>
+        <v>1045</v>
       </c>
       <c r="D25" t="n">
-        <v>715.2142857142858</v>
+        <v>775.2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>303.922:769.447</t>
+          <t>350.998:923.9</t>
         </is>
       </c>
     </row>
@@ -4881,17 +4881,17 @@
         <v>12.5</v>
       </c>
       <c r="C26" t="n">
-        <v>874.7142857142857</v>
+        <v>1007.4</v>
       </c>
       <c r="D26" t="n">
-        <v>677.6428571428571</v>
+        <v>737.5999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>301.817:749.289</t>
+          <t>348.693:891.5</t>
         </is>
       </c>
     </row>
@@ -4903,17 +4903,17 @@
         <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>832.5</v>
+        <v>963</v>
       </c>
       <c r="D27" t="n">
-        <v>635.4285714285714</v>
+        <v>693.2</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>289.532:713.002</t>
+          <t>348.0:855.505</t>
         </is>
       </c>
     </row>
@@ -4925,17 +4925,17 @@
         <v>13.5</v>
       </c>
       <c r="C28" t="n">
-        <v>798</v>
+        <v>929.6</v>
       </c>
       <c r="D28" t="n">
-        <v>600.9285714285714</v>
+        <v>659.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>279.889:683.431</t>
+          <t>337.898:821.215</t>
         </is>
       </c>
     </row>
@@ -4947,17 +4947,17 @@
         <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>755.4285714285714</v>
+        <v>882.2</v>
       </c>
       <c r="D29" t="n">
-        <v>558.3571428571429</v>
+        <v>612.4000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>273.241:654.609</t>
+          <t>330.898:788.708</t>
         </is>
       </c>
     </row>
@@ -4969,17 +4969,17 @@
         <v>14.5</v>
       </c>
       <c r="C30" t="n">
-        <v>721.5714285714286</v>
+        <v>843.4</v>
       </c>
       <c r="D30" t="n">
-        <v>524.5</v>
+        <v>573.5999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>266.316:625.182</t>
+          <t>331.5:756.9</t>
         </is>
       </c>
     </row>
@@ -4991,17 +4991,17 @@
         <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>700.5714285714286</v>
+        <v>824</v>
       </c>
       <c r="D31" t="n">
-        <v>503.5</v>
+        <v>554.2</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>257.392:617.893</t>
+          <t>317.798:739.202</t>
         </is>
       </c>
     </row>
@@ -5013,17 +5013,17 @@
         <v>15.5</v>
       </c>
       <c r="C32" t="n">
-        <v>664.6428571428571</v>
+        <v>782.8</v>
       </c>
       <c r="D32" t="n">
-        <v>467.5714285714286</v>
+        <v>513</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>253.49:589.679</t>
+          <t>317.0:709.302</t>
         </is>
       </c>
     </row>
@@ -5035,17 +5035,17 @@
         <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>635.2857142857143</v>
+        <v>750.4</v>
       </c>
       <c r="D33" t="n">
-        <v>438.2142857142858</v>
+        <v>480.6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>245.356:565.397</t>
+          <t>314.093:683.402</t>
         </is>
       </c>
     </row>
@@ -5057,17 +5057,17 @@
         <v>16.5</v>
       </c>
       <c r="C34" t="n">
-        <v>612.9285714285714</v>
+        <v>727.2</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8571428571429</v>
+        <v>457.4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>243.962:547.253</t>
+          <t>310.993:660.205</t>
         </is>
       </c>
     </row>
@@ -5079,17 +5079,17 @@
         <v>17</v>
       </c>
       <c r="C35" t="n">
-        <v>589.6428571428571</v>
+        <v>702</v>
       </c>
       <c r="D35" t="n">
-        <v>392.5714285714286</v>
+        <v>432.2</v>
       </c>
       <c r="E35" t="n">
         <v>0.007</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>234.534:530.857</t>
+          <t>311.3:640.705</t>
         </is>
       </c>
     </row>
@@ -5101,17 +5101,17 @@
         <v>17.5</v>
       </c>
       <c r="C36" t="n">
-        <v>573.9285714285714</v>
+        <v>687.4</v>
       </c>
       <c r="D36" t="n">
-        <v>376.8571428571429</v>
+        <v>417.6</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>232.989:523.001</t>
+          <t>304.79:630.012</t>
         </is>
       </c>
     </row>
@@ -5123,17 +5123,17 @@
         <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>553.2857142857143</v>
+        <v>663</v>
       </c>
       <c r="D37" t="n">
-        <v>356.2142857142858</v>
+        <v>393.2</v>
       </c>
       <c r="E37" t="n">
         <v>0.005</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>230.962:501.822</t>
+          <t>295.597:609.805</t>
         </is>
       </c>
     </row>
@@ -5145,17 +5145,17 @@
         <v>18.5</v>
       </c>
       <c r="C38" t="n">
-        <v>541.8571428571429</v>
+        <v>654.6</v>
       </c>
       <c r="D38" t="n">
-        <v>344.7857142857143</v>
+        <v>384.8</v>
       </c>
       <c r="E38" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>226.675:495.644</t>
+          <t>302.1:598.602</t>
         </is>
       </c>
     </row>
@@ -5167,17 +5167,17 @@
         <v>19</v>
       </c>
       <c r="C39" t="n">
-        <v>527.5</v>
+        <v>641.8</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4285714285714</v>
+        <v>371.9999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>220.348:489.649</t>
+          <t>295.095:595.2</t>
         </is>
       </c>
     </row>
@@ -5189,17 +5189,17 @@
         <v>19.5</v>
       </c>
       <c r="C40" t="n">
-        <v>524.1428571428571</v>
+        <v>641.2</v>
       </c>
       <c r="D40" t="n">
-        <v>327.0714285714286</v>
+        <v>371.4</v>
       </c>
       <c r="E40" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>219.356:486.396</t>
+          <t>302.795:589.808</t>
         </is>
       </c>
     </row>
@@ -5211,17 +5211,17 @@
         <v>20</v>
       </c>
       <c r="C41" t="n">
-        <v>526.2142857142857</v>
+        <v>648.2</v>
       </c>
       <c r="D41" t="n">
-        <v>329.1428571428571</v>
+        <v>378.4</v>
       </c>
       <c r="E41" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>220.319:487.072</t>
+          <t>304.8:596.1</t>
         </is>
       </c>
     </row>
@@ -5233,17 +5233,17 @@
         <v>20.5</v>
       </c>
       <c r="C42" t="n">
-        <v>515</v>
+        <v>638.6</v>
       </c>
       <c r="D42" t="n">
-        <v>317.9285714285714</v>
+        <v>368.8</v>
       </c>
       <c r="E42" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>210.57:483.609</t>
+          <t>299.498:588.405</t>
         </is>
       </c>
     </row>
@@ -5255,17 +5255,17 @@
         <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>505.7142857142857</v>
+        <v>630.2</v>
       </c>
       <c r="D43" t="n">
-        <v>308.6428571428571</v>
+        <v>360.4</v>
       </c>
       <c r="E43" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>208.283:473.431</t>
+          <t>294.695:580.205</t>
         </is>
       </c>
     </row>
@@ -5329,11 +5329,11 @@
         <v>392.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>38.85:369.2</t>
+          <t>38.375:369.601</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>237.2:926.402</t>
+          <t>234.349:920.414</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>278.599:1208.205</t>
+          <t>266.25:1204.871</t>
         </is>
       </c>
     </row>
@@ -5395,11 +5395,11 @@
         <v>1470.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>246.775:1252.309</t>
+          <t>262.839:1202.859</t>
         </is>
       </c>
     </row>
@@ -5417,11 +5417,11 @@
         <v>1426.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>242.5:1223.451</t>
+          <t>238.795:1224.654</t>
         </is>
       </c>
     </row>
@@ -5439,11 +5439,11 @@
         <v>1329.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>204.564:1148.45</t>
+          <t>215.195:1149.301</t>
         </is>
       </c>
     </row>
@@ -5461,11 +5461,11 @@
         <v>1210.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>186.486:1051.35</t>
+          <t>180.794:995.925</t>
         </is>
       </c>
     </row>
@@ -5483,11 +5483,11 @@
         <v>1075.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>162.649:925.801</t>
+          <t>155.129:940.91</t>
         </is>
       </c>
     </row>
@@ -5505,11 +5505,11 @@
         <v>932.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>120.69:786.61</t>
+          <t>120.799:797.75</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.7:695.1</t>
+          <t>91.85:693.11</t>
         </is>
       </c>
     </row>
@@ -5549,11 +5549,11 @@
         <v>644.1999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71.545:565.511</t>
+          <t>78.29:566.509</t>
         </is>
       </c>
     </row>
@@ -5571,11 +5571,11 @@
         <v>523.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50.686:468.15</t>
+          <t>55.734:468.5</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>34.949:374.751</t>
+          <t>38.199:376.401</t>
         </is>
       </c>
     </row>
@@ -5615,11 +5615,11 @@
         <v>321.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>23.399:306.1</t>
+          <t>26.75:306.7</t>
         </is>
       </c>
     </row>
@@ -5637,11 +5637,11 @@
         <v>244.1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16.55:242.05</t>
+          <t>16.799:241.101</t>
         </is>
       </c>
     </row>
@@ -5659,11 +5659,11 @@
         <v>179.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.038</v>
+        <v>0.03</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15.25:187.3</t>
+          <t>11.049:187.7</t>
         </is>
       </c>
     </row>
@@ -5681,11 +5681,11 @@
         <v>129.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.85:143.6</t>
+          <t>9.098:143.75</t>
         </is>
       </c>
     </row>
@@ -5703,11 +5703,11 @@
         <v>88.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.057</v>
+        <v>0.066</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.55:107.85</t>
+          <t>8.15:108.2</t>
         </is>
       </c>
     </row>
@@ -5725,11 +5725,11 @@
         <v>54.99999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.127</v>
+        <v>0.158</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10.6:78.4</t>
+          <t>9.799:78.45</t>
         </is>
       </c>
     </row>
@@ -5747,11 +5747,11 @@
         <v>31.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.266</v>
+        <v>0.277</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.1:59.25</t>
+          <t>9.3:59.151</t>
         </is>
       </c>
     </row>
@@ -5769,11 +5769,11 @@
         <v>12.3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.518</v>
+        <v>0.51</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11.05:42.15</t>
+          <t>11.05:42.5</t>
         </is>
       </c>
     </row>
@@ -5791,11 +5791,11 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.949</v>
+        <v>0.919</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11.45:32.65</t>
+          <t>11.1:32.851</t>
         </is>
       </c>
     </row>
@@ -5813,11 +5813,11 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.294</v>
+        <v>0.259</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.25:25.8</t>
+          <t>9.2:25.8</t>
         </is>
       </c>
     </row>
@@ -5835,11 +5835,11 @@
         <v>-15.1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.9:22.0</t>
+          <t>7.95:21.95</t>
         </is>
       </c>
     </row>
@@ -5857,11 +5857,11 @@
         <v>-17.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.8:20.35</t>
+          <t>6.699:20.35</t>
         </is>
       </c>
     </row>
@@ -5879,11 +5879,11 @@
         <v>-19.4</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.5:19.45</t>
+          <t>5.6:19.45</t>
         </is>
       </c>
     </row>
@@ -5901,11 +5901,11 @@
         <v>-20</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.199:19.101</t>
+          <t>5.15:19.15</t>
         </is>
       </c>
     </row>
@@ -5923,11 +5923,11 @@
         <v>-20.8</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.55:18.7</t>
+          <t>4.6:18.7</t>
         </is>
       </c>
     </row>
@@ -5945,11 +5945,11 @@
         <v>-22</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.699:18.4</t>
+          <t>3.8:18.301</t>
         </is>
       </c>
     </row>
@@ -5967,11 +5967,11 @@
         <v>-22.7</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.25:18.3</t>
+          <t>3.2:18.25</t>
         </is>
       </c>
     </row>
@@ -5989,11 +5989,11 @@
         <v>-22.9</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.05:18.3</t>
+          <t>3.1:18.15</t>
         </is>
       </c>
     </row>
@@ -6011,11 +6011,11 @@
         <v>-22.8</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.75:18.2</t>
+          <t>3.1:18.2</t>
         </is>
       </c>
     </row>
@@ -6033,11 +6033,11 @@
         <v>-22.3</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.5:18.2</t>
+          <t>3.4:18.4</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.15:18.15</t>
+          <t>3.25:18.3</t>
         </is>
       </c>
     </row>
@@ -6077,11 +6077,11 @@
         <v>-22.6</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.35:18.25</t>
+          <t>3.1:18.15</t>
         </is>
       </c>
     </row>
@@ -6099,11 +6099,11 @@
         <v>-22.6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.35:18.2</t>
+          <t>3.1:18.3</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.2:18.201</t>
+          <t>3.2:18.25</t>
         </is>
       </c>
     </row>
@@ -6143,11 +6143,11 @@
         <v>-22.9</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.0:18.201</t>
+          <t>3.049:18.15</t>
         </is>
       </c>
     </row>
@@ -6165,11 +6165,11 @@
         <v>-22.9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.95:18.25</t>
+          <t>3.2:18.15</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.25:18.05</t>
+          <t>3.4:18.3</t>
         </is>
       </c>
     </row>
@@ -6209,11 +6209,11 @@
         <v>-22.4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.55:18.2</t>
+          <t>3.499:18.35</t>
         </is>
       </c>
     </row>
@@ -6231,11 +6231,11 @@
         <v>-22.7</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.0:18.3</t>
+          <t>3.25:18.25</t>
         </is>
       </c>
     </row>
